--- a/input/logBannerNyu0-500.xlsx
+++ b/input/logBannerNyu0-500.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\testMine\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\testMine\new\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77897909-4031-4534-903E-9FE8E2AE77EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA86436-5D21-4F7B-B243-BE8A3A16D0D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$501</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1201,17 +1204,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="E369" sqref="E369"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H506" sqref="H506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.15625" customWidth="1"/>
     <col min="2" max="2" width="5.1015625" customWidth="1"/>
-    <col min="3" max="11" width="30.578125" customWidth="1"/>
+    <col min="3" max="3" width="11.578125" customWidth="1"/>
+    <col min="4" max="4" width="11.734375" customWidth="1"/>
+    <col min="5" max="5" width="13.1015625" customWidth="1"/>
+    <col min="6" max="6" width="25.1015625" customWidth="1"/>
+    <col min="7" max="11" width="30.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -1249,7 +1257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1270,7 +1278,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1291,7 +1299,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1320,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1341,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +1362,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1375,7 +1383,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1402,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1413,7 +1421,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1448,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1475,7 +1483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1765,7 +1773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -1796,7 +1804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1831,7 +1839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1858,7 +1866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
@@ -1891,7 +1899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
@@ -1924,7 +1932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1959,7 +1967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1994,7 +2002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2021,7 +2029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -2056,7 +2064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -2075,7 +2083,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -2102,7 +2110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2121,7 +2129,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2140,7 +2148,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
@@ -2159,7 +2167,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
@@ -2178,7 +2186,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
@@ -2197,7 +2205,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
@@ -2216,7 +2224,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -2235,7 +2243,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
@@ -2254,7 +2262,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
@@ -2273,7 +2281,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>32</v>
       </c>
@@ -2292,7 +2300,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>32</v>
       </c>
@@ -2311,7 +2319,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
@@ -2330,7 +2338,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
@@ -2349,7 +2357,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>32</v>
       </c>
@@ -2368,7 +2376,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
@@ -2387,7 +2395,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
@@ -2418,7 +2426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -2451,7 +2459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
@@ -2478,7 +2486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>33</v>
       </c>
@@ -2511,7 +2519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>33</v>
       </c>
@@ -2544,7 +2552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -2579,7 +2587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
@@ -2606,7 +2614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>35</v>
       </c>
@@ -2641,7 +2649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>35</v>
       </c>
@@ -2668,7 +2676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>36</v>
       </c>
@@ -2699,7 +2707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>36</v>
       </c>
@@ -2732,7 +2740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>36</v>
       </c>
@@ -2759,7 +2767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
@@ -2792,7 +2800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>36</v>
       </c>
@@ -2825,7 +2833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>39</v>
       </c>
@@ -2856,7 +2864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>39</v>
       </c>
@@ -2889,7 +2897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>39</v>
       </c>
@@ -2916,7 +2924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>39</v>
       </c>
@@ -2949,7 +2957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>39</v>
       </c>
@@ -2982,7 +2990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>42</v>
       </c>
@@ -3017,7 +3025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>45</v>
       </c>
@@ -3044,7 +3052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>45</v>
       </c>
@@ -3071,7 +3079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>45</v>
       </c>
@@ -3102,7 +3110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>45</v>
       </c>
@@ -3133,7 +3141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>45</v>
       </c>
@@ -3160,7 +3168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>45</v>
       </c>
@@ -3191,7 +3199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>45</v>
       </c>
@@ -3210,7 +3218,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>45</v>
       </c>
@@ -3241,7 +3249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>45</v>
       </c>
@@ -3272,7 +3280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>45</v>
       </c>
@@ -3291,7 +3299,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>45</v>
       </c>
@@ -3310,7 +3318,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>45</v>
       </c>
@@ -3329,7 +3337,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>46</v>
       </c>
@@ -3364,7 +3372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>46</v>
       </c>
@@ -3391,7 +3399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>46</v>
       </c>
@@ -3410,7 +3418,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>46</v>
       </c>
@@ -3429,7 +3437,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>46</v>
       </c>
@@ -3448,7 +3456,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>46</v>
       </c>
@@ -3467,7 +3475,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>46</v>
       </c>
@@ -3486,7 +3494,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>46</v>
       </c>
@@ -3505,7 +3513,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>47</v>
       </c>
@@ -3524,7 +3532,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>47</v>
       </c>
@@ -3557,7 +3565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>47</v>
       </c>
@@ -3590,7 +3598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -3609,7 +3617,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>51</v>
       </c>
@@ -3644,7 +3652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>51</v>
       </c>
@@ -3663,7 +3671,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>51</v>
       </c>
@@ -3682,7 +3690,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>51</v>
       </c>
@@ -3715,7 +3723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>51</v>
       </c>
@@ -3744,7 +3752,7 @@
       </c>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>54</v>
       </c>
@@ -3779,7 +3787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>54</v>
       </c>
@@ -3806,7 +3814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>54</v>
       </c>
@@ -3825,7 +3833,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>54</v>
       </c>
@@ -3844,7 +3852,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>54</v>
       </c>
@@ -3863,7 +3871,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>55</v>
       </c>
@@ -3896,7 +3904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>55</v>
       </c>
@@ -3929,7 +3937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>55</v>
       </c>
@@ -3962,7 +3970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>56</v>
       </c>
@@ -3997,7 +4005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>56</v>
       </c>
@@ -4032,7 +4040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>56</v>
       </c>
@@ -4067,7 +4075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>56</v>
       </c>
@@ -4102,7 +4110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>56</v>
       </c>
@@ -4133,7 +4141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>56</v>
       </c>
@@ -4164,7 +4172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>56</v>
       </c>
@@ -4191,7 +4199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>58</v>
       </c>
@@ -4226,7 +4234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>58</v>
       </c>
@@ -4253,7 +4261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>59</v>
       </c>
@@ -4288,7 +4296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>59</v>
       </c>
@@ -4307,7 +4315,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>60</v>
       </c>
@@ -4340,7 +4348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>60</v>
       </c>
@@ -4373,7 +4381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>60</v>
       </c>
@@ -4406,7 +4414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>60</v>
       </c>
@@ -4439,7 +4447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>62</v>
       </c>
@@ -4470,7 +4478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>62</v>
       </c>
@@ -4505,7 +4513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>62</v>
       </c>
@@ -4538,7 +4546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>62</v>
       </c>
@@ -4565,7 +4573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>62</v>
       </c>
@@ -4598,7 +4606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>62</v>
       </c>
@@ -4631,7 +4639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>64</v>
       </c>
@@ -4666,7 +4674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>64</v>
       </c>
@@ -4693,7 +4701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>64</v>
       </c>
@@ -4720,7 +4728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>64</v>
       </c>
@@ -4747,7 +4755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>64</v>
       </c>
@@ -4782,7 +4790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>64</v>
       </c>
@@ -4817,7 +4825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>67</v>
       </c>
@@ -4850,7 +4858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>67</v>
       </c>
@@ -4869,7 +4877,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>67</v>
       </c>
@@ -4888,7 +4896,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>67</v>
       </c>
@@ -4907,7 +4915,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>67</v>
       </c>
@@ -4940,7 +4948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>67</v>
       </c>
@@ -4973,7 +4981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>67</v>
       </c>
@@ -5002,7 +5010,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>70</v>
       </c>
@@ -5035,7 +5043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>70</v>
       </c>
@@ -5068,7 +5076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>70</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>70</v>
       </c>
@@ -5128,7 +5136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>70</v>
       </c>
@@ -5161,7 +5169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>71</v>
       </c>
@@ -5180,7 +5188,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
         <v>71</v>
       </c>
@@ -5199,7 +5207,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
         <v>71</v>
       </c>
@@ -5218,7 +5226,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
         <v>71</v>
       </c>
@@ -5237,7 +5245,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
         <v>71</v>
       </c>
@@ -5256,7 +5264,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
         <v>71</v>
       </c>
@@ -5275,7 +5283,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
         <v>71</v>
       </c>
@@ -5294,7 +5302,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
         <v>71</v>
       </c>
@@ -5313,7 +5321,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>71</v>
       </c>
@@ -5332,7 +5340,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>71</v>
       </c>
@@ -5351,7 +5359,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>71</v>
       </c>
@@ -5370,7 +5378,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>71</v>
       </c>
@@ -5389,7 +5397,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
         <v>72</v>
       </c>
@@ -5408,7 +5416,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
         <v>72</v>
       </c>
@@ -5443,7 +5451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
         <v>73</v>
       </c>
@@ -5474,7 +5482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>73</v>
       </c>
@@ -5509,7 +5517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
         <v>73</v>
       </c>
@@ -5542,7 +5550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
         <v>73</v>
       </c>
@@ -5569,7 +5577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
         <v>73</v>
       </c>
@@ -5588,7 +5596,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
         <v>73</v>
       </c>
@@ -5607,7 +5615,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>73</v>
       </c>
@@ -5642,7 +5650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
         <v>73</v>
       </c>
@@ -5675,7 +5683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
         <v>73</v>
       </c>
@@ -5704,7 +5712,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>78</v>
       </c>
@@ -5723,7 +5731,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
         <v>78</v>
       </c>
@@ -5742,7 +5750,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
         <v>78</v>
       </c>
@@ -5775,7 +5783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
         <v>78</v>
       </c>
@@ -5808,7 +5816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
         <v>79</v>
       </c>
@@ -5827,7 +5835,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
         <v>79</v>
       </c>
@@ -5846,7 +5854,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
         <v>79</v>
       </c>
@@ -5865,7 +5873,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
         <v>79</v>
       </c>
@@ -5884,7 +5892,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
         <v>79</v>
       </c>
@@ -5903,7 +5911,7 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>80</v>
       </c>
@@ -5934,7 +5942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
         <v>80</v>
       </c>
@@ -5969,7 +5977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
         <v>80</v>
       </c>
@@ -6002,7 +6010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>80</v>
       </c>
@@ -6029,7 +6037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
         <v>80</v>
       </c>
@@ -6062,7 +6070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
         <v>80</v>
       </c>
@@ -6095,7 +6103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
         <v>81</v>
       </c>
@@ -6126,7 +6134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>81</v>
       </c>
@@ -6159,7 +6167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
         <v>81</v>
       </c>
@@ -6186,7 +6194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
         <v>81</v>
       </c>
@@ -6205,7 +6213,7 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
         <v>81</v>
       </c>
@@ -6224,7 +6232,7 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>81</v>
       </c>
@@ -6243,7 +6251,7 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
         <v>81</v>
       </c>
@@ -6272,7 +6280,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
         <v>82</v>
       </c>
@@ -6291,7 +6299,7 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
         <v>82</v>
       </c>
@@ -6310,7 +6318,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
         <v>82</v>
       </c>
@@ -6329,7 +6337,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
         <v>82</v>
       </c>
@@ -6348,7 +6356,7 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
         <v>83</v>
       </c>
@@ -6383,7 +6391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
         <v>83</v>
       </c>
@@ -6410,7 +6418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>83</v>
       </c>
@@ -6437,7 +6445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
         <v>83</v>
       </c>
@@ -6472,7 +6480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
         <v>83</v>
       </c>
@@ -6499,7 +6507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
         <v>83</v>
       </c>
@@ -6534,7 +6542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
         <v>83</v>
       </c>
@@ -6553,7 +6561,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
         <v>84</v>
       </c>
@@ -6586,7 +6594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
         <v>84</v>
       </c>
@@ -6605,7 +6613,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>84</v>
       </c>
@@ -6624,7 +6632,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
         <v>84</v>
       </c>
@@ -6653,7 +6661,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
         <v>86</v>
       </c>
@@ -6672,7 +6680,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
         <v>86</v>
       </c>
@@ -6691,7 +6699,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
         <v>86</v>
       </c>
@@ -6710,7 +6718,7 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
         <v>87</v>
       </c>
@@ -6745,7 +6753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>87</v>
       </c>
@@ -6772,7 +6780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
         <v>87</v>
       </c>
@@ -6799,7 +6807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
         <v>88</v>
       </c>
@@ -6830,7 +6838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
         <v>88</v>
       </c>
@@ -6865,7 +6873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A212" s="2" t="s">
         <v>88</v>
       </c>
@@ -6892,7 +6900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
         <v>88</v>
       </c>
@@ -6925,7 +6933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
         <v>88</v>
       </c>
@@ -6958,7 +6966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A215" s="2" t="s">
         <v>89</v>
       </c>
@@ -6993,7 +7001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A216" s="2" t="s">
         <v>89</v>
       </c>
@@ -7020,7 +7028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A217" s="2" t="s">
         <v>89</v>
       </c>
@@ -7055,7 +7063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A218" s="2" t="s">
         <v>89</v>
       </c>
@@ -7082,7 +7090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A219" s="2" t="s">
         <v>90</v>
       </c>
@@ -7117,7 +7125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A220" s="2" t="s">
         <v>90</v>
       </c>
@@ -7144,7 +7152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
         <v>90</v>
       </c>
@@ -7171,7 +7179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A222" s="2" t="s">
         <v>90</v>
       </c>
@@ -7198,7 +7206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A223" s="2" t="s">
         <v>90</v>
       </c>
@@ -7225,7 +7233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A224" s="2" t="s">
         <v>90</v>
       </c>
@@ -7260,7 +7268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A225" s="2" t="s">
         <v>90</v>
       </c>
@@ -7295,7 +7303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A226" s="2" t="s">
         <v>91</v>
       </c>
@@ -7314,7 +7322,7 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A227" s="2" t="s">
         <v>91</v>
       </c>
@@ -7333,7 +7341,7 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A228" s="2" t="s">
         <v>91</v>
       </c>
@@ -7352,7 +7360,7 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A229" s="2" t="s">
         <v>91</v>
       </c>
@@ -7371,7 +7379,7 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
         <v>91</v>
       </c>
@@ -7390,7 +7398,7 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
         <v>91</v>
       </c>
@@ -7409,7 +7417,7 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A232" s="2" t="s">
         <v>91</v>
       </c>
@@ -7428,7 +7436,7 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A233" s="2" t="s">
         <v>91</v>
       </c>
@@ -7447,7 +7455,7 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A234" s="2" t="s">
         <v>91</v>
       </c>
@@ -7466,7 +7474,7 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A235" s="2" t="s">
         <v>91</v>
       </c>
@@ -7485,7 +7493,7 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A236" s="2" t="s">
         <v>91</v>
       </c>
@@ -7504,7 +7512,7 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
         <v>91</v>
       </c>
@@ -7523,7 +7531,7 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A238" s="2" t="s">
         <v>91</v>
       </c>
@@ -7542,7 +7550,7 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
         <v>91</v>
       </c>
@@ -7561,7 +7569,7 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A240" s="2" t="s">
         <v>91</v>
       </c>
@@ -7580,7 +7588,7 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A241" s="2" t="s">
         <v>91</v>
       </c>
@@ -7599,7 +7607,7 @@
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A242" s="2" t="s">
         <v>91</v>
       </c>
@@ -7634,7 +7642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A243" s="2" t="s">
         <v>93</v>
       </c>
@@ -7665,7 +7673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A244" s="2" t="s">
         <v>93</v>
       </c>
@@ -7700,7 +7708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A245" s="2" t="s">
         <v>93</v>
       </c>
@@ -7727,7 +7735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A246" s="2" t="s">
         <v>93</v>
       </c>
@@ -7760,7 +7768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
         <v>93</v>
       </c>
@@ -7793,7 +7801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A248" s="2" t="s">
         <v>95</v>
       </c>
@@ -7828,7 +7836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A249" s="2" t="s">
         <v>95</v>
       </c>
@@ -7855,7 +7863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A250" s="2" t="s">
         <v>95</v>
       </c>
@@ -7874,7 +7882,7 @@
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A251" s="2" t="s">
         <v>95</v>
       </c>
@@ -7893,7 +7901,7 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A252" s="2" t="s">
         <v>95</v>
       </c>
@@ -7912,7 +7920,7 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A253" s="2" t="s">
         <v>95</v>
       </c>
@@ -7931,7 +7939,7 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
         <v>95</v>
       </c>
@@ -7950,7 +7958,7 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A255" s="2" t="s">
         <v>96</v>
       </c>
@@ -7969,7 +7977,7 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A256" s="2" t="s">
         <v>96</v>
       </c>
@@ -8265,7 +8273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A266" s="2" t="s">
         <v>99</v>
       </c>
@@ -8300,7 +8308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A267" s="2" t="s">
         <v>100</v>
       </c>
@@ -8333,7 +8341,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A268" s="2" t="s">
         <v>100</v>
       </c>
@@ -8368,7 +8376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A269" s="2" t="s">
         <v>100</v>
       </c>
@@ -8387,7 +8395,7 @@
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A270" s="2" t="s">
         <v>103</v>
       </c>
@@ -8406,7 +8414,7 @@
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A271" s="2" t="s">
         <v>104</v>
       </c>
@@ -8441,7 +8449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A272" s="2" t="s">
         <v>104</v>
       </c>
@@ -8474,7 +8482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A273" s="2" t="s">
         <v>104</v>
       </c>
@@ -8493,7 +8501,7 @@
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A274" s="2" t="s">
         <v>104</v>
       </c>
@@ -8512,7 +8520,7 @@
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A275" s="2" t="s">
         <v>104</v>
       </c>
@@ -8545,7 +8553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A276" s="2" t="s">
         <v>104</v>
       </c>
@@ -8578,7 +8586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A277" s="2" t="s">
         <v>104</v>
       </c>
@@ -8607,7 +8615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A278" s="2" t="s">
         <v>105</v>
       </c>
@@ -8642,7 +8650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A279" s="2" t="s">
         <v>107</v>
       </c>
@@ -8661,7 +8669,7 @@
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A280" s="2" t="s">
         <v>107</v>
       </c>
@@ -8680,7 +8688,7 @@
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A281" s="2" t="s">
         <v>107</v>
       </c>
@@ -8699,7 +8707,7 @@
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A282" s="2" t="s">
         <v>107</v>
       </c>
@@ -8718,7 +8726,7 @@
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A283" s="2" t="s">
         <v>107</v>
       </c>
@@ -8737,7 +8745,7 @@
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A284" s="2" t="s">
         <v>107</v>
       </c>
@@ -8756,7 +8764,7 @@
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A285" s="2" t="s">
         <v>108</v>
       </c>
@@ -8783,7 +8791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A286" s="2" t="s">
         <v>108</v>
       </c>
@@ -8810,7 +8818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A287" s="2" t="s">
         <v>108</v>
       </c>
@@ -8841,7 +8849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A288" s="2" t="s">
         <v>108</v>
       </c>
@@ -8872,7 +8880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A289" s="2" t="s">
         <v>108</v>
       </c>
@@ -8899,7 +8907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A290" s="2" t="s">
         <v>108</v>
       </c>
@@ -8930,7 +8938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A291" s="2" t="s">
         <v>108</v>
       </c>
@@ -8961,7 +8969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A292" s="2" t="s">
         <v>108</v>
       </c>
@@ -8992,7 +9000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A293" s="2" t="s">
         <v>108</v>
       </c>
@@ -9011,7 +9019,7 @@
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A294" s="2" t="s">
         <v>108</v>
       </c>
@@ -9030,7 +9038,7 @@
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A295" s="2" t="s">
         <v>108</v>
       </c>
@@ -9049,7 +9057,7 @@
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A296" s="2" t="s">
         <v>109</v>
       </c>
@@ -9084,7 +9092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A297" s="2" t="s">
         <v>109</v>
       </c>
@@ -9111,7 +9119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A298" s="2" t="s">
         <v>109</v>
       </c>
@@ -9146,7 +9154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A299" s="2" t="s">
         <v>109</v>
       </c>
@@ -9173,7 +9181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A300" s="2" t="s">
         <v>110</v>
       </c>
@@ -9208,7 +9216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A301" s="2" t="s">
         <v>110</v>
       </c>
@@ -9235,7 +9243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A302" s="2" t="s">
         <v>110</v>
       </c>
@@ -9270,7 +9278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A303" s="2" t="s">
         <v>110</v>
       </c>
@@ -9289,7 +9297,7 @@
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A304" s="2" t="s">
         <v>110</v>
       </c>
@@ -9308,7 +9316,7 @@
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A305" s="2" t="s">
         <v>110</v>
       </c>
@@ -9327,7 +9335,7 @@
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A306" s="2" t="s">
         <v>110</v>
       </c>
@@ -9346,7 +9354,7 @@
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A307" s="2" t="s">
         <v>110</v>
       </c>
@@ -9365,7 +9373,7 @@
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A308" s="2" t="s">
         <v>110</v>
       </c>
@@ -9384,7 +9392,7 @@
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A309" s="2" t="s">
         <v>110</v>
       </c>
@@ -9403,7 +9411,7 @@
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A310" s="2" t="s">
         <v>111</v>
       </c>
@@ -9434,7 +9442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A311" s="2" t="s">
         <v>111</v>
       </c>
@@ -9469,7 +9477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A312" s="2" t="s">
         <v>111</v>
       </c>
@@ -9502,7 +9510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A313" s="2" t="s">
         <v>111</v>
       </c>
@@ -9529,7 +9537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A314" s="2" t="s">
         <v>111</v>
       </c>
@@ -9562,7 +9570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A315" s="2" t="s">
         <v>111</v>
       </c>
@@ -9595,7 +9603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A316" s="2" t="s">
         <v>112</v>
       </c>
@@ -9630,7 +9638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A317" s="2" t="s">
         <v>112</v>
       </c>
@@ -9657,7 +9665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A318" s="2" t="s">
         <v>112</v>
       </c>
@@ -9676,7 +9684,7 @@
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A319" s="2" t="s">
         <v>112</v>
       </c>
@@ -9695,7 +9703,7 @@
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A320" s="2" t="s">
         <v>112</v>
       </c>
@@ -9714,7 +9722,7 @@
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A321" s="2" t="s">
         <v>112</v>
       </c>
@@ -9733,7 +9741,7 @@
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A322" s="2" t="s">
         <v>112</v>
       </c>
@@ -9752,7 +9760,7 @@
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A323" s="2" t="s">
         <v>113</v>
       </c>
@@ -9771,7 +9779,7 @@
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A324" s="2" t="s">
         <v>113</v>
       </c>
@@ -9790,7 +9798,7 @@
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A325" s="2" t="s">
         <v>113</v>
       </c>
@@ -9809,7 +9817,7 @@
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A326" s="2" t="s">
         <v>113</v>
       </c>
@@ -9828,7 +9836,7 @@
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A327" s="2" t="s">
         <v>113</v>
       </c>
@@ -9847,7 +9855,7 @@
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A328" s="2" t="s">
         <v>114</v>
       </c>
@@ -9882,7 +9890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A329" s="2" t="s">
         <v>115</v>
       </c>
@@ -9917,7 +9925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A330" s="2" t="s">
         <v>115</v>
       </c>
@@ -9948,7 +9956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A331" s="2" t="s">
         <v>115</v>
       </c>
@@ -9983,7 +9991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A332" s="2" t="s">
         <v>115</v>
       </c>
@@ -10018,7 +10026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A333" s="2" t="s">
         <v>115</v>
       </c>
@@ -10053,7 +10061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A334" s="2" t="s">
         <v>115</v>
       </c>
@@ -10088,7 +10096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A335" s="2" t="s">
         <v>115</v>
       </c>
@@ -10119,7 +10127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A336" s="2" t="s">
         <v>115</v>
       </c>
@@ -10150,7 +10158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A337" s="2" t="s">
         <v>115</v>
       </c>
@@ -10177,7 +10185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A338" s="2" t="s">
         <v>116</v>
       </c>
@@ -10196,7 +10204,7 @@
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A339" s="2" t="s">
         <v>116</v>
       </c>
@@ -10215,7 +10223,7 @@
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A340" s="2" t="s">
         <v>116</v>
       </c>
@@ -10234,7 +10242,7 @@
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A341" s="2" t="s">
         <v>116</v>
       </c>
@@ -10253,7 +10261,7 @@
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A342" s="2" t="s">
         <v>116</v>
       </c>
@@ -10272,7 +10280,7 @@
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A343" s="2" t="s">
         <v>116</v>
       </c>
@@ -10291,7 +10299,7 @@
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A344" s="2" t="s">
         <v>116</v>
       </c>
@@ -10310,7 +10318,7 @@
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A345" s="2" t="s">
         <v>116</v>
       </c>
@@ -10329,7 +10337,7 @@
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A346" s="2" t="s">
         <v>116</v>
       </c>
@@ -10348,7 +10356,7 @@
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A347" s="2" t="s">
         <v>117</v>
       </c>
@@ -10381,7 +10389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A348" s="2" t="s">
         <v>117</v>
       </c>
@@ -10400,7 +10408,7 @@
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A349" s="2" t="s">
         <v>117</v>
       </c>
@@ -10419,7 +10427,7 @@
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A350" s="2" t="s">
         <v>117</v>
       </c>
@@ -10448,7 +10456,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A351" s="2" t="s">
         <v>118</v>
       </c>
@@ -10467,7 +10475,7 @@
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A352" s="2" t="s">
         <v>119</v>
       </c>
@@ -10502,7 +10510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A353" s="2" t="s">
         <v>119</v>
       </c>
@@ -10521,7 +10529,7 @@
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A354" s="2" t="s">
         <v>120</v>
       </c>
@@ -10556,7 +10564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A355" s="2" t="s">
         <v>120</v>
       </c>
@@ -10583,7 +10591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A356" s="2" t="s">
         <v>120</v>
       </c>
@@ -10618,7 +10626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A357" s="2" t="s">
         <v>120</v>
       </c>
@@ -10645,7 +10653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A358" s="2" t="s">
         <v>120</v>
       </c>
@@ -10680,7 +10688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A359" s="2" t="s">
         <v>120</v>
       </c>
@@ -10707,7 +10715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A360" s="2" t="s">
         <v>120</v>
       </c>
@@ -10734,7 +10742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A361" s="2" t="s">
         <v>120</v>
       </c>
@@ -10769,7 +10777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A362" s="2" t="s">
         <v>120</v>
       </c>
@@ -10804,7 +10812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A363" s="2" t="s">
         <v>123</v>
       </c>
@@ -10823,7 +10831,7 @@
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A364" s="2" t="s">
         <v>123</v>
       </c>
@@ -10842,7 +10850,7 @@
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A365" s="2" t="s">
         <v>123</v>
       </c>
@@ -10861,7 +10869,7 @@
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A366" s="2" t="s">
         <v>123</v>
       </c>
@@ -10880,7 +10888,7 @@
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A367" s="2" t="s">
         <v>123</v>
       </c>
@@ -10899,7 +10907,7 @@
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A368" s="2" t="s">
         <v>123</v>
       </c>
@@ -10918,7 +10926,7 @@
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A369" s="2" t="s">
         <v>123</v>
       </c>
@@ -10937,7 +10945,7 @@
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A370" s="2" t="s">
         <v>123</v>
       </c>
@@ -10956,7 +10964,7 @@
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A371" s="2" t="s">
         <v>124</v>
       </c>
@@ -10989,7 +10997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A372" s="2" t="s">
         <v>124</v>
       </c>
@@ -11022,7 +11030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A373" s="2" t="s">
         <v>124</v>
       </c>
@@ -11049,7 +11057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A374" s="2" t="s">
         <v>124</v>
       </c>
@@ -11082,7 +11090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A375" s="2" t="s">
         <v>124</v>
       </c>
@@ -11115,7 +11123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A376" s="2" t="s">
         <v>125</v>
       </c>
@@ -11150,7 +11158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A377" s="2" t="s">
         <v>125</v>
       </c>
@@ -11169,7 +11177,7 @@
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A378" s="2" t="s">
         <v>125</v>
       </c>
@@ -11202,7 +11210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A379" s="2" t="s">
         <v>125</v>
       </c>
@@ -11235,7 +11243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A380" s="2" t="s">
         <v>125</v>
       </c>
@@ -11264,7 +11272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A381" s="2" t="s">
         <v>130</v>
       </c>
@@ -11299,7 +11307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A382" s="2" t="s">
         <v>130</v>
       </c>
@@ -11326,7 +11334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A383" s="2" t="s">
         <v>130</v>
       </c>
@@ -11345,7 +11353,7 @@
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A384" s="2" t="s">
         <v>130</v>
       </c>
@@ -11372,7 +11380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A385" s="2" t="s">
         <v>131</v>
       </c>
@@ -11403,7 +11411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A386" s="2" t="s">
         <v>131</v>
       </c>
@@ -11436,7 +11444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A387" s="2" t="s">
         <v>131</v>
       </c>
@@ -11463,7 +11471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A388" s="2" t="s">
         <v>131</v>
       </c>
@@ -11496,7 +11504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A389" s="2" t="s">
         <v>131</v>
       </c>
@@ -11529,7 +11537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A390" s="2" t="s">
         <v>132</v>
       </c>
@@ -11564,7 +11572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A391" s="2" t="s">
         <v>132</v>
       </c>
@@ -11591,7 +11599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A392" s="2" t="s">
         <v>132</v>
       </c>
@@ -11610,7 +11618,7 @@
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A393" s="2" t="s">
         <v>133</v>
       </c>
@@ -11641,7 +11649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A394" s="2" t="s">
         <v>133</v>
       </c>
@@ -11676,7 +11684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A395" s="2" t="s">
         <v>133</v>
       </c>
@@ -11709,7 +11717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A396" s="2" t="s">
         <v>133</v>
       </c>
@@ -11736,7 +11744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A397" s="2" t="s">
         <v>133</v>
       </c>
@@ -11769,7 +11777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A398" s="2" t="s">
         <v>133</v>
       </c>
@@ -11802,7 +11810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A399" s="2" t="s">
         <v>134</v>
       </c>
@@ -11833,7 +11841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A400" s="2" t="s">
         <v>134</v>
       </c>
@@ -11866,7 +11874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A401" s="2" t="s">
         <v>134</v>
       </c>
@@ -11893,7 +11901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A402" s="2" t="s">
         <v>134</v>
       </c>
@@ -11926,7 +11934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A403" s="2" t="s">
         <v>134</v>
       </c>
@@ -11959,7 +11967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A404" s="2" t="s">
         <v>135</v>
       </c>
@@ -11992,7 +12000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A405" s="2" t="s">
         <v>135</v>
       </c>
@@ -12027,7 +12035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A406" s="2" t="s">
         <v>135</v>
       </c>
@@ -12048,7 +12056,7 @@
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A407" s="2" t="s">
         <v>135</v>
       </c>
@@ -12079,7 +12087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A408" s="2" t="s">
         <v>135</v>
       </c>
@@ -12108,7 +12116,7 @@
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A409" s="2" t="s">
         <v>135</v>
       </c>
@@ -12143,7 +12151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A410" s="2" t="s">
         <v>135</v>
       </c>
@@ -12162,7 +12170,7 @@
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A411" s="2" t="s">
         <v>135</v>
       </c>
@@ -12197,7 +12205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A412" s="2" t="s">
         <v>135</v>
       </c>
@@ -12224,7 +12232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A413" s="2" t="s">
         <v>135</v>
       </c>
@@ -12251,7 +12259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A414" s="2" t="s">
         <v>135</v>
       </c>
@@ -12270,7 +12278,7 @@
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A415" s="2" t="s">
         <v>135</v>
       </c>
@@ -12303,7 +12311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A416" s="2" t="s">
         <v>135</v>
       </c>
@@ -12322,7 +12330,7 @@
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A417" s="2" t="s">
         <v>135</v>
       </c>
@@ -12355,7 +12363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A418" s="2" t="s">
         <v>135</v>
       </c>
@@ -12374,7 +12382,7 @@
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A419" s="2" t="s">
         <v>135</v>
       </c>
@@ -12393,7 +12401,7 @@
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A420" s="2" t="s">
         <v>139</v>
       </c>
@@ -12426,7 +12434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A421" s="2" t="s">
         <v>139</v>
       </c>
@@ -12445,7 +12453,7 @@
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A422" s="2" t="s">
         <v>139</v>
       </c>
@@ -12464,7 +12472,7 @@
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A423" s="2" t="s">
         <v>139</v>
       </c>
@@ -12483,7 +12491,7 @@
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A424" s="2" t="s">
         <v>139</v>
       </c>
@@ -12516,7 +12524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A425" s="2" t="s">
         <v>139</v>
       </c>
@@ -12549,7 +12557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A426" s="2" t="s">
         <v>139</v>
       </c>
@@ -12578,7 +12586,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A427" s="2" t="s">
         <v>140</v>
       </c>
@@ -12613,7 +12621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A428" s="2" t="s">
         <v>140</v>
       </c>
@@ -12640,7 +12648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A429" s="2" t="s">
         <v>140</v>
       </c>
@@ -12659,7 +12667,7 @@
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A430" s="2" t="s">
         <v>140</v>
       </c>
@@ -12678,7 +12686,7 @@
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A431" s="2" t="s">
         <v>140</v>
       </c>
@@ -12697,7 +12705,7 @@
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A432" s="2" t="s">
         <v>140</v>
       </c>
@@ -12732,7 +12740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A433" s="2" t="s">
         <v>140</v>
       </c>
@@ -12767,7 +12775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A434" s="2" t="s">
         <v>140</v>
       </c>
@@ -12794,7 +12802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A435" s="2" t="s">
         <v>140</v>
       </c>
@@ -12821,7 +12829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A436" s="2" t="s">
         <v>141</v>
       </c>
@@ -12854,7 +12862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A437" s="2" t="s">
         <v>141</v>
       </c>
@@ -12873,7 +12881,7 @@
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A438" s="2" t="s">
         <v>141</v>
       </c>
@@ -12892,7 +12900,7 @@
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A439" s="2" t="s">
         <v>141</v>
       </c>
@@ -12911,7 +12919,7 @@
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A440" s="2" t="s">
         <v>141</v>
       </c>
@@ -12946,7 +12954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A441" s="2" t="s">
         <v>141</v>
       </c>
@@ -12979,7 +12987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A442" s="2" t="s">
         <v>141</v>
       </c>
@@ -13008,7 +13016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A443" s="2" t="s">
         <v>142</v>
       </c>
@@ -13027,7 +13035,7 @@
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A444" s="2" t="s">
         <v>143</v>
       </c>
@@ -13060,7 +13068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A445" s="2" t="s">
         <v>145</v>
       </c>
@@ -13091,7 +13099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A446" s="2" t="s">
         <v>145</v>
       </c>
@@ -13124,7 +13132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A447" s="2" t="s">
         <v>145</v>
       </c>
@@ -13157,7 +13165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A448" s="2" t="s">
         <v>145</v>
       </c>
@@ -13184,7 +13192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A449" s="2" t="s">
         <v>145</v>
       </c>
@@ -13217,7 +13225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A450" s="2" t="s">
         <v>145</v>
       </c>
@@ -13250,7 +13258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A451" s="2" t="s">
         <v>146</v>
       </c>
@@ -13283,7 +13291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A452" s="2" t="s">
         <v>146</v>
       </c>
@@ -13302,7 +13310,7 @@
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A453" s="2" t="s">
         <v>146</v>
       </c>
@@ -13321,7 +13329,7 @@
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A454" s="2" t="s">
         <v>146</v>
       </c>
@@ -13340,7 +13348,7 @@
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A455" s="2" t="s">
         <v>146</v>
       </c>
@@ -13373,7 +13381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A456" s="2" t="s">
         <v>146</v>
       </c>
@@ -13406,7 +13414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A457" s="2" t="s">
         <v>146</v>
       </c>
@@ -13435,7 +13443,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A458" s="2" t="s">
         <v>147</v>
       </c>
@@ -13470,7 +13478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A459" s="2" t="s">
         <v>148</v>
       </c>
@@ -13505,7 +13513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A460" s="2" t="s">
         <v>148</v>
       </c>
@@ -13532,7 +13540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A461" s="2" t="s">
         <v>148</v>
       </c>
@@ -13567,7 +13575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A462" s="2" t="s">
         <v>148</v>
       </c>
@@ -13594,7 +13602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A463" s="2" t="s">
         <v>149</v>
       </c>
@@ -13613,7 +13621,7 @@
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A464" s="2" t="s">
         <v>149</v>
       </c>
@@ -13632,7 +13640,7 @@
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A465" s="2" t="s">
         <v>149</v>
       </c>
@@ -13651,7 +13659,7 @@
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A466" s="2" t="s">
         <v>149</v>
       </c>
@@ -13670,7 +13678,7 @@
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A467" s="2" t="s">
         <v>150</v>
       </c>
@@ -13701,7 +13709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A468" s="2" t="s">
         <v>150</v>
       </c>
@@ -13736,7 +13744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A469" s="2" t="s">
         <v>150</v>
       </c>
@@ -13769,7 +13777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A470" s="2" t="s">
         <v>150</v>
       </c>
@@ -13796,7 +13804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A471" s="2" t="s">
         <v>150</v>
       </c>
@@ -13829,7 +13837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A472" s="2" t="s">
         <v>150</v>
       </c>
@@ -13862,7 +13870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A473" s="2" t="s">
         <v>151</v>
       </c>
@@ -13895,7 +13903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A474" s="2" t="s">
         <v>153</v>
       </c>
@@ -13914,7 +13922,7 @@
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A475" s="2" t="s">
         <v>154</v>
       </c>
@@ -13933,7 +13941,7 @@
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A476" s="2" t="s">
         <v>154</v>
       </c>
@@ -13952,7 +13960,7 @@
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A477" s="2" t="s">
         <v>154</v>
       </c>
@@ -13971,7 +13979,7 @@
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A478" s="2" t="s">
         <v>154</v>
       </c>
@@ -13990,7 +13998,7 @@
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A479" s="2" t="s">
         <v>154</v>
       </c>
@@ -14009,7 +14017,7 @@
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A480" s="2" t="s">
         <v>154</v>
       </c>
@@ -14028,7 +14036,7 @@
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A481" s="2" t="s">
         <v>154</v>
       </c>
@@ -14047,7 +14055,7 @@
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A482" s="2" t="s">
         <v>154</v>
       </c>
@@ -14066,7 +14074,7 @@
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A483" s="2" t="s">
         <v>154</v>
       </c>
@@ -14085,7 +14093,7 @@
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A484" s="2" t="s">
         <v>155</v>
       </c>
@@ -14118,7 +14126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A485" s="2" t="s">
         <v>157</v>
       </c>
@@ -14153,7 +14161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A486" s="2" t="s">
         <v>157</v>
       </c>
@@ -14188,7 +14196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A487" s="2" t="s">
         <v>157</v>
       </c>
@@ -14207,7 +14215,7 @@
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A488" s="2" t="s">
         <v>157</v>
       </c>
@@ -14226,7 +14234,7 @@
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A489" s="2" t="s">
         <v>157</v>
       </c>
@@ -14259,7 +14267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A490" s="2" t="s">
         <v>157</v>
       </c>
@@ -14292,7 +14300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A491" s="2" t="s">
         <v>157</v>
       </c>
@@ -14321,7 +14329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A492" s="2" t="s">
         <v>160</v>
       </c>
@@ -14354,7 +14362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A493" s="2" t="s">
         <v>160</v>
       </c>
@@ -14387,7 +14395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A494" s="2" t="s">
         <v>160</v>
       </c>
@@ -14420,7 +14428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A495" s="2" t="s">
         <v>160</v>
       </c>
@@ -14449,7 +14457,7 @@
       </c>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A496" s="2" t="s">
         <v>163</v>
       </c>
@@ -14484,7 +14492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A497" s="2" t="s">
         <v>164</v>
       </c>
@@ -14519,7 +14527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A498" s="2" t="s">
         <v>164</v>
       </c>
@@ -14546,7 +14554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A499" s="2" t="s">
         <v>164</v>
       </c>
@@ -14581,7 +14589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A500" s="2" t="s">
         <v>164</v>
       </c>
@@ -14616,7 +14624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A501" s="2" t="s">
         <v>164</v>
       </c>
@@ -14644,6 +14652,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K501" xr:uid="{2316DCE9-12DF-48B3-B552-07D47B3A6B2D}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="172.19.216.12"/>
+        <filter val="172.19.217.115"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
